--- a/autoTrade/dde/MyDDEServer.xlsx
+++ b/autoTrade/dde/MyDDEServer.xlsx
@@ -13,13 +13,14 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>名稱</t>
   </si>
@@ -70,6 +71,10 @@
   <si>
     <t>橡膠第二盤時間</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>現量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -102,7 +107,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -118,12 +123,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -148,7 +147,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -158,16 +157,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -186,7 +182,7 @@
       <ddeItem name="JRU&amp;.101" advise="1">
         <values>
           <value>
-            <val>203.7</val>
+            <val>263.39999999999998</val>
           </value>
         </values>
       </ddeItem>
@@ -200,74 +196,161 @@
       <ddeItem name="JRU&amp;.102" advise="1">
         <values>
           <value>
-            <val>203.8</val>
+            <val>263.60000000000002</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="JRU&amp;.125" advise="1">
         <values>
           <value>
-            <val>203.7</val>
+            <val>263.60000000000002</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="JRU&amp;.126" advise="1">
         <values>
           <value>
-            <val>202</val>
+            <val>263.3</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="JRU&amp;.129" advise="1">
         <values>
           <value>
-            <val>202</val>
+            <val>262.5</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="JRU&amp;.130" advise="1">
         <values>
           <value>
-            <val>203.9</val>
+            <val>264.7</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="JRU&amp;.131" advise="1">
         <values>
           <value>
-            <val>200.5</val>
+            <val>262.39999999999998</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="JRU&amp;.143" advise="1">
         <values>
           <value>
-            <val>104709</val>
+            <val>185956</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="JRU&amp;.184" advise="1">
         <values>
           <value>
-            <val>1.7</val>
+            <val>1.1000000000000001</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="JRU&amp;.2020" advise="1">
         <values>
           <value t="str">
-            <val>橡膠1002</val>
+            <val>橡膠1005</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="JRU&amp;.404" advise="1">
         <values>
           <value>
-            <val>6455</val>
+            <val>1550</val>
           </value>
         </values>
       </ddeItem>
       <ddeItem name="StdDocumentName" ole="1" advise="1"/>
+    </ddeItems>
+  </ddeLink>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <ddeLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ddeService="TCGQ" ddeTopic="ICE.TOCOM.RUBBER.201005">
+    <ddeItems>
+      <ddeItem name="_xlbgnm.p10" advise="1">
+        <values>
+          <value>
+            <val>262.39999999999998</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="_xlbgnm.p15" advise="1">
+        <values>
+          <value>
+            <val>261.89999999999998</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="_xlbgnm.p3" advise="1">
+        <values>
+          <value>
+            <val>263.60000000000002</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="_xlbgnm.p30" advise="1">
+        <values>
+          <value>
+            <val>263.39999999999998</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="_xlbgnm.p5" advise="1">
+        <values>
+          <value>
+            <val>2.7</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="_xlbgnm.p50" advise="1">
+        <values>
+          <value>
+            <val>263.60000000000002</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="_xlbgnm.p8" advise="1">
+        <values>
+          <value>
+            <val>263.3</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="_xlbgnm.p9" advise="1">
+        <values>
+          <value>
+            <val>264.7</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="_xlbgnm.s1" advise="1">
+        <values>
+          <value t="str">
+            <val>橡膠201005</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="StdDocumentName" ole="1" advise="1"/>
+      <ddeItem name="_xlbgnm.v4" advise="1">
+        <values>
+          <value>
+            <val>1</val>
+          </value>
+        </values>
+      </ddeItem>
+      <ddeItem name="_xlbgnm.v6" advise="1">
+        <values>
+          <value>
+            <val>1550</val>
+          </value>
+        </values>
+      </ddeItem>
     </ddeItems>
   </ddeLink>
 </externalLink>
@@ -558,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -571,7 +654,7 @@
     <col min="5" max="5" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -608,85 +691,120 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" t="str">
+        <f>[2]!_xlbgnm.s1</f>
+        <v>橡膠201005</v>
+      </c>
+      <c r="D2">
+        <f>[2]!_xlbgnm.p30</f>
+        <v>263.39999999999998</v>
+      </c>
+      <c r="E2">
+        <f>[2]!_xlbgnm.p50</f>
+        <v>263.60000000000002</v>
+      </c>
+      <c r="F2">
+        <f>[2]!_xlbgnm.p3</f>
+        <v>263.60000000000002</v>
+      </c>
+      <c r="G2">
+        <f>[2]!_xlbgnm.p5</f>
+        <v>2.7</v>
+      </c>
+      <c r="H2">
+        <f>[2]!_xlbgnm.v6</f>
+        <v>1550</v>
+      </c>
+      <c r="I2">
+        <f>[2]!_xlbgnm.p8</f>
+        <v>263.3</v>
+      </c>
+      <c r="J2">
+        <f>[2]!_xlbgnm.p9</f>
+        <v>264.7</v>
+      </c>
+      <c r="K2">
+        <f>[2]!_xlbgnm.p10</f>
+        <v>262.39999999999998</v>
+      </c>
+      <c r="L2">
+        <f>[2]!_xlbgnm.p15</f>
+        <v>261.89999999999998</v>
+      </c>
+      <c r="M2">
+        <f>[2]!_xlbgnm.v4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="str">
         <f>[1]!'JRU&amp;.2020'</f>
-        <v>橡膠1002</v>
-      </c>
-      <c r="B2" t="str">
+        <v>橡膠1005</v>
+      </c>
+      <c r="B3" t="str">
         <f>[1]!'JRU&amp;.1018'</f>
         <v>JRU&amp;</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <f>[1]!'JRU&amp;.143'</f>
-        <v>104709</v>
-      </c>
-      <c r="D2">
+        <v>185956</v>
+      </c>
+      <c r="D3">
         <f>[1]!'JRU&amp;.101'</f>
-        <v>203.7</v>
-      </c>
-      <c r="E2">
+        <v>263.39999999999998</v>
+      </c>
+      <c r="E3">
         <f>[1]!'JRU&amp;.102'</f>
-        <v>203.8</v>
-      </c>
-      <c r="F2">
+        <v>263.60000000000002</v>
+      </c>
+      <c r="F3">
         <f>[1]!'JRU&amp;.125'</f>
-        <v>203.7</v>
-      </c>
-      <c r="G2">
+        <v>263.60000000000002</v>
+      </c>
+      <c r="G3">
         <f>[1]!'JRU&amp;.184'</f>
-        <v>1.7</v>
-      </c>
-      <c r="H2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H3">
         <f>[1]!'JRU&amp;.404'</f>
-        <v>6455</v>
-      </c>
-      <c r="I2">
+        <v>1550</v>
+      </c>
+      <c r="I3">
         <f>[1]!'JRU&amp;.126'</f>
-        <v>202</v>
-      </c>
-      <c r="J2">
+        <v>263.3</v>
+      </c>
+      <c r="J3">
         <f>[1]!'JRU&amp;.130'</f>
-        <v>203.9</v>
-      </c>
-      <c r="K2">
+        <v>264.7</v>
+      </c>
+      <c r="K3">
         <f>[1]!'JRU&amp;.131'</f>
-        <v>200.5</v>
-      </c>
-      <c r="L2">
+        <v>262.39999999999998</v>
+      </c>
+      <c r="L3">
         <f>[1]!'JRU&amp;.129'</f>
-        <v>202</v>
+        <v>262.5</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <f ca="1">TIMEVALUE((TEXT(NOW(),"h:mm:ss AM/PM")))</f>
-        <v>0.40760416666666671</v>
+        <v>2.5358796296296296E-2</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1">
         <f>IF(H3&gt;H2+10,F3,F2)</f>
-        <v>203.7</v>
+        <v>263.60000000000002</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -695,41 +813,41 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:13">
+      <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="5"/>
       <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="1" t="str">
         <f ca="1">IF(OR(AND(B4&gt;=A6,B4&lt;B6),AND(B4&gt;=A8,B4&lt;B8)),F4,"")</f>
-        <v>203.7</v>
+        <v/>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="4">
+    <row r="6" spans="1:13">
+      <c r="A6" s="3">
         <f>TIME(8,0,0)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <f>TIME(14,30,0)</f>
         <v>0.60416666666666663</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:13">
+      <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="5"/>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="4">
+    <row r="8" spans="1:13">
+      <c r="A8" s="3">
         <f>TIME(16,0,0)</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <f>TIME(18,0,0)</f>
         <v>0.75</v>
       </c>
